--- a/build/assets/statics/bdb/REEXPEDICION.xlsx
+++ b/build/assets/statics/bdb/REEXPEDICION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\squijano\Desktop\BANCO DE BOGOTA\ARCHIVOS AUTOGESTION CEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FFB291-7B2B-4187-8534-96781A23E207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2262F2C7-D07F-4513-A138-D0B21170F790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="473" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,7 +178,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Teléfono celular del beneficiario al que se reexpedirá la tarjeta.</t>
+          <t xml:space="preserve">Teléfono celular del beneficiario al que se reexpedirá la tarjeta.
+Debe coincidir con el teléfono celular registrado en la plataforma. </t>
         </r>
       </text>
     </comment>
@@ -1255,7 +1256,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6261,7 +6262,7 @@
       <c r="G510" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NeYTWCOjIGNnWfy8XCfH+Rz71dQLnsExpv8Srgdpjkie5mcu6fYcV50tTk4Eur0bB0aOdnpdA+KqlfPxoDy3Aw==" saltValue="jK9vIC0hpTr+L95wBbLVKA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bLxjGmJjUR6rxaoKjWGtkizfoeXg6SymTm7ikIIMWDXKQeBbE2A3oRbJcC6fR0scNIvnMxa5RyXkRh1vE9LcgA==" saltValue="0JCyEZMnS2FqbaeIsYUt6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="H10:N35 A11:F510" name="Rango1_1"/>
     <protectedRange sqref="A8:D8" name="Rango1_1_1_1"/>

--- a/build/assets/statics/bdb/REEXPEDICION.xlsx
+++ b/build/assets/statics/bdb/REEXPEDICION.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\squijano\Desktop\BANCO DE BOGOTA\ARCHIVOS AUTOGESTION CEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2262F2C7-D07F-4513-A138-D0B21170F790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6BEDAC-026D-4948-BC2D-A2DF276F8585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="473" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -538,13 +538,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
@@ -691,6 +721,12 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1263,11 +1299,10 @@
   <cols>
     <col min="1" max="1" width="14.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="4" customWidth="1"/>
+    <col min="3" max="4" width="22.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="4" customWidth="1"/>
     <col min="8" max="8" width="19" style="5" customWidth="1"/>
     <col min="9" max="9" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.88671875" style="4" customWidth="1"/>
@@ -1512,12 +1547,12 @@
       <c r="Q10" s="35"/>
     </row>
     <row r="11" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="43"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -6262,7 +6297,7 @@
       <c r="G510" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bLxjGmJjUR6rxaoKjWGtkizfoeXg6SymTm7ikIIMWDXKQeBbE2A3oRbJcC6fR0scNIvnMxa5RyXkRh1vE9LcgA==" saltValue="0JCyEZMnS2FqbaeIsYUt6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3zr9ujveWKAKtXMhZxnb1XaSEgd34aTLZVZb3aoZ2oNEULmoiJRMDbN4r7Y6o7H6TjRH//lnxflbRpA1t/n3Gw==" saltValue="f7H3fZpBqEBdO6r9b8QYyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0"/>
   <protectedRanges>
     <protectedRange sqref="H10:N35 A11:F510" name="Rango1_1"/>
     <protectedRange sqref="A8:D8" name="Rango1_1_1_1"/>

--- a/build/assets/statics/bdb/REEXPEDICION.xlsx
+++ b/build/assets/statics/bdb/REEXPEDICION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\squijano\Desktop\BANCO DE BOGOTA\ARCHIVOS AUTOGESTION CEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6BEDAC-026D-4948-BC2D-A2DF276F8585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC5E55D-4255-4290-AC6C-A86C87960953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="473" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>TIPO IDENTIFICACION BENEFICIARIO</t>
   </si>
@@ -244,13 +244,16 @@
     <t>Con las columnas A,B,C,D,E,F y G, se realiza la búsqueda de la tarjeta a reexpedir. Si algún dato no coindice, esa línea no será procesada.</t>
   </si>
   <si>
-    <t>En la fila 8 se debe indicar cuántas tarjetas serán reexpedidas en este archivo, así como la fecha de cargue del mismo y el convenio que aplica a las tarjetas.</t>
-  </si>
-  <si>
     <t>Datos de búsqueda para Reexpedición</t>
   </si>
   <si>
     <t xml:space="preserve">Las tarjetas deben estar Bloqueadas o Vencidas para que se permita su reexpedición. </t>
+  </si>
+  <si>
+    <t>Desde la fila 11 del archivo se deben agregar el listado de tarjetahabientes con tarjetas por reexpedir. No debe dejar filas vacías. La fila vacía indica fin de archivo.</t>
+  </si>
+  <si>
+    <t>En la fila 8 del archivo se debe indicar cuántas tarjetas serán reexpedidas en este archivo, así como la fecha de cargue del mismo y el convenio que aplica a las tarjetas.</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -525,56 +528,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
@@ -693,10 +653,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -722,12 +678,7 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1288,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q510"/>
+  <dimension ref="A1:Q506"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
@@ -1337,7 +1288,7 @@
       <c r="Q1" s="18"/>
     </row>
     <row r="2" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -1358,7 +1309,7 @@
       <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="20"/>
       <c r="C3" s="24"/>
       <c r="D3" s="20"/>
@@ -1384,7 +1335,7 @@
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
       <c r="E4" s="21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
@@ -1404,8 +1355,8 @@
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
-      <c r="E5" s="21" t="s">
-        <v>17</v>
+      <c r="E5" s="51" t="s">
+        <v>20</v>
       </c>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
@@ -1421,14 +1372,14 @@
       <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
@@ -1457,7 +1408,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
@@ -1476,12 +1427,14 @@
       <c r="A8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="46">
         <v>1</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1493,15 +1446,15 @@
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:17" s="34" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="49" t="s">
-        <v>19</v>
+      <c r="A9" s="48" t="s">
+        <v>18</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
@@ -1514,25 +1467,25 @@
       <c r="Q9" s="33"/>
     </row>
     <row r="10" spans="1:17" s="37" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="45" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="35"/>
@@ -1547,13 +1500,13 @@
       <c r="Q10" s="35"/>
     </row>
     <row r="11" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="43"/>
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -1945,7 +1898,7 @@
       <c r="P31" s="13"/>
       <c r="Q31" s="13"/>
     </row>
-    <row r="32" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1953,18 +1906,8 @@
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -1972,18 +1915,8 @@
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -1991,18 +1924,8 @@
       <c r="E34" s="10"/>
       <c r="F34" s="11"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -2010,18 +1933,8 @@
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -2030,7 +1943,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -2039,7 +1952,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -2048,7 +1961,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -2057,7 +1970,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -2066,7 +1979,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -2075,7 +1988,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -2084,7 +1997,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -2093,7 +2006,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -2102,7 +2015,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -2111,7 +2024,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -2120,7 +2033,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -2129,7 +2042,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -6260,46 +6173,10 @@
       <c r="F506" s="11"/>
       <c r="G506" s="12"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A507" s="10"/>
-      <c r="B507" s="10"/>
-      <c r="C507" s="10"/>
-      <c r="D507" s="10"/>
-      <c r="E507" s="10"/>
-      <c r="F507" s="11"/>
-      <c r="G507" s="12"/>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A508" s="10"/>
-      <c r="B508" s="10"/>
-      <c r="C508" s="10"/>
-      <c r="D508" s="10"/>
-      <c r="E508" s="10"/>
-      <c r="F508" s="11"/>
-      <c r="G508" s="12"/>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A509" s="10"/>
-      <c r="B509" s="10"/>
-      <c r="C509" s="10"/>
-      <c r="D509" s="10"/>
-      <c r="E509" s="10"/>
-      <c r="F509" s="11"/>
-      <c r="G509" s="12"/>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A510" s="10"/>
-      <c r="B510" s="10"/>
-      <c r="C510" s="10"/>
-      <c r="D510" s="10"/>
-      <c r="E510" s="10"/>
-      <c r="F510" s="11"/>
-      <c r="G510" s="12"/>
-    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3zr9ujveWKAKtXMhZxnb1XaSEgd34aTLZVZb3aoZ2oNEULmoiJRMDbN4r7Y6o7H6TjRH//lnxflbRpA1t/n3Gw==" saltValue="f7H3fZpBqEBdO6r9b8QYyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="i/IoKQUy/Gns6J42Z7kkqbv+mmP8N5u0bnzAKsLyVM1nVVhZJhV3xc9oJES0bIvHEl38AQ544EuoA3d5FZEOjQ==" saltValue="MWM7Mojv/UwFBBSnRchX2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" deleteRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="H10:N35 A11:F510" name="Rango1_1"/>
+    <protectedRange sqref="A11:F506 H10:N31" name="Rango1_1"/>
     <protectedRange sqref="A8:D8" name="Rango1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="3">
@@ -6308,7 +6185,7 @@
     <mergeCell ref="A6:D6"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A510" xr:uid="{F56CD41B-2651-4098-9CC6-ADBCE7C1CFE0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A506" xr:uid="{F56CD41B-2651-4098-9CC6-ADBCE7C1CFE0}">
       <formula1>"C,E,P,T,R,N,L,I,X"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{0C4755F9-B80C-4CB2-942B-A2791936E83A}">
@@ -6322,7 +6199,7 @@
       <formula1>8</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G510" xr:uid="{5D2E02A0-CAE7-4FEE-BD1A-321B0AD85D5E}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G506" xr:uid="{5D2E02A0-CAE7-4FEE-BD1A-321B0AD85D5E}">
       <formula1>10</formula1>
       <formula2>10</formula2>
     </dataValidation>
